--- a/sponsors.xlsx
+++ b/sponsors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5AF21BBB-CB56-497F-8AD4-95FA7D003DB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C880967-E5FC-47F5-BCAA-A175F7EF03EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D7E69770-935D-4913-AC26-C2C5AB69F080}"/>
   </bookViews>
@@ -27,37 +27,45 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>2 Money</t>
-  </si>
-  <si>
     <t>Sponsor 2</t>
   </si>
   <si>
-    <t>1 Money</t>
-  </si>
-  <si>
     <t>Sponsor 1</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Sponsor</t>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>Sponsors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,10 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,7 +118,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1011E05A-ABCA-4C1D-925E-7CA5393D5BDE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -418,30 +428,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sponsors.xlsx
+++ b/sponsors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C880967-E5FC-47F5-BCAA-A175F7EF03EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DCC06EB-E199-42FF-962C-4AEDF44C7308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{D7E69770-935D-4913-AC26-C2C5AB69F080}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sponsor 2</t>
   </si>
@@ -43,27 +43,45 @@
   </si>
   <si>
     <t>Sponsors</t>
+  </si>
+  <si>
+    <t>Sponsor 3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>Sponsor 4</t>
+  </si>
+  <si>
+    <t>+4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -94,12 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1011E05A-ABCA-4C1D-925E-7CA5393D5BDE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -427,32 +446,46 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
